--- a/data/trans_dic/P2A_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.6720162776455338</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5662515419901205</v>
+        <v>0.5662515419901206</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6843618277915223</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5260761334329483</v>
+        <v>0.5280566651798453</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5131421256768902</v>
+        <v>0.5145500720099068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5375376401036489</v>
+        <v>0.539036239988876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4359362450008127</v>
+        <v>0.4352225754249329</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7302505587344196</v>
+        <v>0.7284752197057532</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6874428572264465</v>
+        <v>0.685072672279289</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6456295998718389</v>
+        <v>0.6452303737287212</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5314829514771401</v>
+        <v>0.5296269837777504</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6604332260075404</v>
+        <v>0.6599326691884063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6106473257533865</v>
+        <v>0.6111209081615495</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6020618595751007</v>
+        <v>0.6020055063494343</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5000500134094931</v>
+        <v>0.5005191404104519</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6055928436933112</v>
+        <v>0.6145435243275224</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5769924304292903</v>
+        <v>0.576931553157466</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.597363931123394</v>
+        <v>0.5986968130025094</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5359696829879136</v>
+        <v>0.5375591111449622</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7856239915177824</v>
+        <v>0.7864853813090453</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7430936347539779</v>
+        <v>0.7425455889345997</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6971029746563553</v>
+        <v>0.6995864635809483</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6021103357909362</v>
+        <v>0.601431009532058</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7081556996696268</v>
+        <v>0.7095245417340099</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6528202620107781</v>
+        <v>0.6544541530168686</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6413650571623888</v>
+        <v>0.6431087326117633</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5576021678139208</v>
+        <v>0.5596567081831785</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.5796016985052848</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4837404618768494</v>
+        <v>0.4837404618768493</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4706954529699137</v>
+        <v>0.4684289183211471</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5433891414426825</v>
+        <v>0.5461379145014817</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4812820484857019</v>
+        <v>0.4792321901791256</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4090589445567644</v>
+        <v>0.4058196480210127</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5913720067003775</v>
+        <v>0.5919299109183478</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6701586001461681</v>
+        <v>0.6711088266108354</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6080963720290742</v>
+        <v>0.6108173003961429</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4935365892252916</v>
+        <v>0.4968535538032888</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5369770579453983</v>
+        <v>0.5385601258518735</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6189144870032479</v>
+        <v>0.6197734633376072</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5564043173934091</v>
+        <v>0.5583261041332218</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4607019705755014</v>
+        <v>0.4612295247000718</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5299826474853061</v>
+        <v>0.5306888289493518</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.610811822670117</v>
+        <v>0.6115438688268786</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5477580140902522</v>
+        <v>0.5489376590828317</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4755878297719587</v>
+        <v>0.4764738937355362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6481750993911125</v>
+        <v>0.6484544937699647</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.728322352407738</v>
+        <v>0.7249257667283234</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6678831000808915</v>
+        <v>0.672167737166536</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5500741271636961</v>
+        <v>0.5515011519229646</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5810939164498581</v>
+        <v>0.580686305143241</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6645363338167226</v>
+        <v>0.6622211661116201</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6019894431833955</v>
+        <v>0.6025412457963237</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5046011462091835</v>
+        <v>0.5066159161745351</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4169607966039482</v>
+        <v>0.4194234912691</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5468800091795808</v>
+        <v>0.5504839210667598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4511124606064124</v>
+        <v>0.4538609413237508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3580864422398379</v>
+        <v>0.3546530559440347</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5320900413275262</v>
+        <v>0.5285316252455735</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6424949366247075</v>
+        <v>0.6430911045557655</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5766012461254602</v>
+        <v>0.5760937356326168</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4056946824500942</v>
+        <v>0.4056200375882525</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4808809833372258</v>
+        <v>0.4816558604684532</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6075618540701033</v>
+        <v>0.6081032415605748</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.525198287664564</v>
+        <v>0.5215768031167862</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.387145139312304</v>
+        <v>0.3847520939298476</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.477908723766872</v>
+        <v>0.4800499588553841</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6176033808649289</v>
+        <v>0.620257299470139</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5239509917525348</v>
+        <v>0.5307223097017925</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4180012867579371</v>
+        <v>0.4214022248093379</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5955930393880692</v>
+        <v>0.5914114050578303</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7066099038569391</v>
+        <v>0.7103758684628252</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.647331231499316</v>
+        <v>0.6448050759175195</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4595794770381609</v>
+        <v>0.4601715398547165</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5232427516246392</v>
+        <v>0.5244010585853223</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6560881536785288</v>
+        <v>0.6569911781384238</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5751394603038413</v>
+        <v>0.5728933815686205</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4308871400473483</v>
+        <v>0.4288062899165735</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.5267106039712712</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3351753274831263</v>
+        <v>0.3351753274831262</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3599606758376703</v>
+        <v>0.3615263941621287</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4417344465689087</v>
+        <v>0.4329231825745945</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4202285310710037</v>
+        <v>0.4231974591497883</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2894424979160216</v>
+        <v>0.28682622769893</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5508581353561408</v>
+        <v>0.5465336573112404</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6040342150542286</v>
+        <v>0.5991916236293141</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5399984105528718</v>
+        <v>0.5373422784940514</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.323945486569102</v>
+        <v>0.3245509958774356</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4568470201817242</v>
+        <v>0.456285968863988</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5294640040882432</v>
+        <v>0.5343085348510707</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4952654786395154</v>
+        <v>0.4961891090241071</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.313923981297088</v>
+        <v>0.3128233044982601</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4586831896452037</v>
+        <v>0.4551850488825913</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5365185413542531</v>
+        <v>0.5304515102951667</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5179649113811197</v>
+        <v>0.5165841316482125</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3551904799499399</v>
+        <v>0.3525848783464967</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6515521751618448</v>
+        <v>0.6568578587116288</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6971436659922553</v>
+        <v>0.6941811836183726</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6266913844014549</v>
+        <v>0.623269152879171</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3794349130907396</v>
+        <v>0.3797834403292102</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5278717487032855</v>
+        <v>0.5265102799423299</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5962868305205575</v>
+        <v>0.6025854921085831</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5604491103860157</v>
+        <v>0.5573662808951744</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3567495100397985</v>
+        <v>0.3587750096825408</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4656726388961702</v>
+        <v>0.4628755183845353</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5375928183048242</v>
+        <v>0.5380370102718811</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5022476061936808</v>
+        <v>0.5024623489873479</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.37797906716024</v>
+        <v>0.3800154339900582</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6228474079838506</v>
+        <v>0.622152219585372</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6756907193768577</v>
+        <v>0.6751024108680407</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.620089941870607</v>
+        <v>0.6203546631373428</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4462024050972923</v>
+        <v>0.4470947068728956</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5489089652569957</v>
+        <v>0.5487030506887486</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6140313206993374</v>
+        <v>0.6134417855431734</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.568973486084197</v>
+        <v>0.5676011002317257</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4178753511009284</v>
+        <v>0.417952157866535</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5023418660115101</v>
+        <v>0.5002772082285846</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.572734144870876</v>
+        <v>0.5752766474730688</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5381318168139849</v>
+        <v>0.5386846501392424</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4135530397270822</v>
+        <v>0.4137341337565758</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6557870363538327</v>
+        <v>0.6548981716861897</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7062959176520426</v>
+        <v>0.7082021744412852</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6518991122782875</v>
+        <v>0.6523607474600345</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4773241869724315</v>
+        <v>0.4761302550996195</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5736704037317395</v>
+        <v>0.5734248624460917</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6373468844676312</v>
+        <v>0.6374960777733248</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.592972316880724</v>
+        <v>0.5934916428648592</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.441841196673895</v>
+        <v>0.4410007347289119</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>307303</v>
+        <v>308460</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>535687</v>
+        <v>537157</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>606341</v>
+        <v>608031</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>217418</v>
+        <v>217062</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>673534</v>
+        <v>671897</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>769887</v>
+        <v>767232</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>813210</v>
+        <v>812707</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>331422</v>
+        <v>330265</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>994925</v>
+        <v>994171</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1321357</v>
+        <v>1322382</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1437458</v>
+        <v>1437323</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>561216</v>
+        <v>561743</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>353752</v>
+        <v>358980</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>602343</v>
+        <v>602279</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>673825</v>
+        <v>675328</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>267309</v>
+        <v>268102</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>724607</v>
+        <v>725401</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>832211</v>
+        <v>831598</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>878044</v>
+        <v>881172</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>375464</v>
+        <v>375040</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1066818</v>
+        <v>1068880</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1412614</v>
+        <v>1416149</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1531296</v>
+        <v>1535459</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>625808</v>
+        <v>628114</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>507360</v>
+        <v>504917</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>530931</v>
+        <v>533617</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>437401</v>
+        <v>435538</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>392753</v>
+        <v>389642</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>625398</v>
+        <v>625988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>733329</v>
+        <v>734369</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>612034</v>
+        <v>614772</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>550712</v>
+        <v>554414</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1146678</v>
+        <v>1150059</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1281979</v>
+        <v>1283758</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1065681</v>
+        <v>1069362</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>956411</v>
+        <v>957506</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>571265</v>
+        <v>572026</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>596808</v>
+        <v>597523</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>497816</v>
+        <v>498888</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>456629</v>
+        <v>457480</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>685470</v>
+        <v>685765</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>796975</v>
+        <v>793259</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>672208</v>
+        <v>676520</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>613800</v>
+        <v>615392</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1240887</v>
+        <v>1240016</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1376477</v>
+        <v>1371682</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1152990</v>
+        <v>1154047</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1047545</v>
+        <v>1051728</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>467661</v>
+        <v>470423</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>484052</v>
+        <v>487242</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>371608</v>
+        <v>373872</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>374730</v>
+        <v>371137</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>528866</v>
+        <v>525329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>562694</v>
+        <v>563217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>444594</v>
+        <v>444202</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>425023</v>
+        <v>424945</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1017320</v>
+        <v>1018959</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1069862</v>
+        <v>1070816</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>837596</v>
+        <v>831820</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>810729</v>
+        <v>805717</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>536020</v>
+        <v>538421</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>546650</v>
+        <v>548999</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>431609</v>
+        <v>437187</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>437430</v>
+        <v>440989</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>591984</v>
+        <v>587827</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>618846</v>
+        <v>622144</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>499131</v>
+        <v>497183</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>481475</v>
+        <v>482095</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1106938</v>
+        <v>1109388</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1155313</v>
+        <v>1156903</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>917243</v>
+        <v>913661</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>902330</v>
+        <v>897972</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>160974</v>
+        <v>161675</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>222203</v>
+        <v>217770</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>212930</v>
+        <v>214435</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>282475</v>
+        <v>279922</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>187930</v>
+        <v>186454</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>273468</v>
+        <v>271276</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>264436</v>
+        <v>263135</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>294902</v>
+        <v>295453</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>360159</v>
+        <v>359717</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>506039</v>
+        <v>510670</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>493482</v>
+        <v>494402</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>592147</v>
+        <v>590070</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>205123</v>
+        <v>203559</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>269881</v>
+        <v>266829</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>262453</v>
+        <v>261754</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>346641</v>
+        <v>344098</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>222282</v>
+        <v>224092</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>315622</v>
+        <v>314281</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>306890</v>
+        <v>305214</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>345417</v>
+        <v>345734</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>416152</v>
+        <v>415079</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>569906</v>
+        <v>575926</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>558430</v>
+        <v>555359</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>672927</v>
+        <v>676748</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1504509</v>
+        <v>1495472</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1832732</v>
+        <v>1834246</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1691209</v>
+        <v>1691932</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1315852</v>
+        <v>1322942</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2064720</v>
+        <v>2062415</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2393784</v>
+        <v>2391700</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2186928</v>
+        <v>2187862</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1649796</v>
+        <v>1653095</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3593047</v>
+        <v>3591699</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4268664</v>
+        <v>4264566</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3922546</v>
+        <v>3913085</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2999802</v>
+        <v>3000354</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1622981</v>
+        <v>1616310</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1952534</v>
+        <v>1961202</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1812042</v>
+        <v>1813903</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1439696</v>
+        <v>1440326</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2173914</v>
+        <v>2170967</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2502210</v>
+        <v>2508963</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2299113</v>
+        <v>2300741</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1764866</v>
+        <v>1760452</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3755131</v>
+        <v>3753523</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>4430751</v>
+        <v>4431788</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>4087996</v>
+        <v>4091576</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>3171846</v>
+        <v>3165812</v>
       </c>
     </row>
     <row r="24">
